--- a/7093_orders.xlsx
+++ b/7093_orders.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">Delivery</t>
   </si>
@@ -29,6 +29,9 @@
     <t xml:space="preserve">Accounting Number</t>
   </si>
   <si>
+    <t xml:space="preserve">3bMonday</t>
+  </si>
+  <si>
     <t xml:space="preserve">2bMonday</t>
   </si>
   <si>
@@ -65,31 +68,46 @@
     <t xml:space="preserve">Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Doses/Breed</t>
+    <t xml:space="preserve">MWF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weekly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FARM 8132</t>
   </si>
   <si>
     <t xml:space="preserve">THS</t>
   </si>
   <si>
-    <t xml:space="preserve">Weekly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALUM SPRINGS SOW FARM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MWF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOYKIN LAKE SOW FARM</t>
+    <t xml:space="preserve">ALLEN FARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNJ SOW</t>
   </si>
   <si>
     <t xml:space="preserve">BUCKHORN SOW</t>
   </si>
   <si>
-    <t xml:space="preserve">Cat Tail Bay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FAIRWINDS FARROWING</t>
+    <t xml:space="preserve">CASTALIA SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sow 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COASTAL PLAIN SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENVIRO TECH 1 SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENVIRO TECH 2 SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENVIRO TECH 3 SOW</t>
   </si>
   <si>
     <t xml:space="preserve">Farm 21471 Farrowing</t>
@@ -98,67 +116,73 @@
     <t xml:space="preserve">FARM 26021 FARROW TO WEAN</t>
   </si>
   <si>
-    <t xml:space="preserve">Batch</t>
+    <t xml:space="preserve">Farm 55731 Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 55741 Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 55761 Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 8134 - Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 8151 - Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 8152 - Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 8511 - Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 8525 - Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 8526 - Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 8531 - Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 8533-Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 85351-Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 85361-Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 8537 - Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 86391 Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G2 Sow Farm</t>
   </si>
   <si>
     <t xml:space="preserve">HAIRR 2 SOW</t>
   </si>
   <si>
+    <t xml:space="preserve">HOLLOMAN SOW FARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC PACK SOW</t>
+  </si>
+  <si>
     <t xml:space="preserve">NC WOLF SOW</t>
   </si>
   <si>
-    <t xml:space="preserve">Farm 34171/BOC 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 55731 Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 55741 Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 55761 Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 57021 Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 57291 Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 57821 Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLUEBERRY SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 8525 - Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 8526 - Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 8531 - Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 8533-Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 85351-Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INGOLD SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 8152 - Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC PACK SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAGNOLIA 1 SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAGNOLIA 2 SOW</t>
+    <t xml:space="preserve">OUTBACK SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENDER 1 SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENDER 2 SOW</t>
   </si>
   <si>
     <t xml:space="preserve">SHADOW GLEN SOW</t>
@@ -167,55 +191,16 @@
     <t xml:space="preserve">FARM 26011 CROSS FARROW TO WEAN</t>
   </si>
   <si>
-    <t xml:space="preserve">New Colony Sow Farm 6276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENDER 2 SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PETERS CREEK SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oakwood Sow Farm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pine Ridge Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sand Ridge Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandhill Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEA GRO SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOUTHERN PINES 8000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PENDER 1 SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sow 4</t>
+    <t xml:space="preserve">STANTONSBURG SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUMMITT SOW FARM</t>
   </si>
   <si>
     <t xml:space="preserve">WEBBER SOW</t>
   </si>
   <si>
-    <t xml:space="preserve">OWL POND FARM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAYLOR SOW FARM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHALEY SOW FARM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZIMMERMAN SOW FARM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLAYHILL SOW FARM</t>
+    <t xml:space="preserve">Wilson Sow Farm 87221</t>
   </si>
 </sst>
 </file>
@@ -552,7 +537,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
@@ -560,18 +545,18 @@
     <col min="4" max="4" width="31.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="17.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="8.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="9.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="8.71" hidden="0" customWidth="1"/>
     <col min="8" max="8" width="9.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="11.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="9.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="11.71" hidden="0" customWidth="1"/>
-    <col min="11" max="11" width="10.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="11.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="10.71" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="8.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="10.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="8.71" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="10.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="8.71" hidden="0" customWidth="1"/>
     <col min="16" max="16" width="10.71" hidden="0" customWidth="1"/>
-    <col min="17" max="17" width="5.71" hidden="0" customWidth="1"/>
-    <col min="18" max="18" width="11.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="10.71" hidden="0" customWidth="1"/>
+    <col min="18" max="18" width="5.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -644,30 +629,28 @@
         <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>3957</v>
+        <v>81321</v>
       </c>
       <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2" t="n">
-        <v>36</v>
-      </c>
+      <c r="G2" t="n">
+        <v>110</v>
+      </c>
+      <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2" t="n">
-        <v>84</v>
-      </c>
+      <c r="K2" t="n">
+        <v>22</v>
+      </c>
+      <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2" t="n">
-        <v>137</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>257</v>
-      </c>
+      <c r="O2" t="n">
+        <v>28</v>
+      </c>
+      <c r="P2"/>
+      <c r="Q2"/>
       <c r="R2" t="n">
-        <v>2.08943089430894</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
@@ -684,30 +667,28 @@
         <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>6352</v>
-      </c>
-      <c r="F3" t="n">
-        <v>100</v>
-      </c>
+        <v>2003</v>
+      </c>
+      <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3" t="n">
-        <v>40</v>
-      </c>
+      <c r="I3" t="n">
+        <v>60</v>
+      </c>
+      <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3" t="n">
-        <v>106</v>
-      </c>
+      <c r="M3" t="n">
+        <v>60</v>
+      </c>
+      <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3" t="n">
-        <v>246</v>
+        <v>75</v>
       </c>
       <c r="R3" t="n">
-        <v>2.13913043478261</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4">
@@ -724,30 +705,28 @@
         <v>23</v>
       </c>
       <c r="E4" t="n">
-        <v>38681</v>
-      </c>
-      <c r="F4" t="n">
-        <v>180</v>
-      </c>
+        <v>62401</v>
+      </c>
+      <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4" t="n">
-        <v>60</v>
-      </c>
+      <c r="I4" t="n">
+        <v>40</v>
+      </c>
+      <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4" t="n">
-        <v>180</v>
-      </c>
+      <c r="M4" t="n">
+        <v>40</v>
+      </c>
+      <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4" t="n">
-        <v>420</v>
+        <v>110</v>
       </c>
       <c r="R4" t="n">
-        <v>1.97183098591549</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5">
@@ -764,35 +743,33 @@
         <v>24</v>
       </c>
       <c r="E5" t="n">
-        <v>6505</v>
+        <v>38681</v>
       </c>
       <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5" t="n">
-        <v>110</v>
-      </c>
+      <c r="G5" t="n">
+        <v>100</v>
+      </c>
+      <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5" t="n">
-        <v>130</v>
-      </c>
+      <c r="K5" t="n">
+        <v>115</v>
+      </c>
+      <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5" t="n">
-        <v>250</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="O5" t="n">
+        <v>275</v>
+      </c>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5" t="n">
         <v>490</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.96787148594378</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" t="n">
         <v>7093</v>
@@ -804,30 +781,28 @@
         <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>68511</v>
+        <v>72411</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6" t="n">
-        <v>90</v>
-      </c>
-      <c r="I6"/>
+      <c r="H6"/>
+      <c r="I6" t="n">
+        <v>70</v>
+      </c>
       <c r="J6"/>
       <c r="K6"/>
-      <c r="L6" t="n">
-        <v>110</v>
-      </c>
-      <c r="M6"/>
+      <c r="L6"/>
+      <c r="M6" t="n">
+        <v>25</v>
+      </c>
       <c r="N6"/>
       <c r="O6"/>
-      <c r="P6" t="n">
-        <v>130</v>
-      </c>
+      <c r="P6"/>
       <c r="Q6" t="n">
-        <v>330</v>
+        <v>115</v>
       </c>
       <c r="R6" t="n">
-        <v>2.2</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7">
@@ -838,41 +813,39 @@
         <v>7093</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" t="n">
-        <v>21471</v>
-      </c>
-      <c r="F7" t="n">
-        <v>70</v>
-      </c>
+        <v>67041</v>
+      </c>
+      <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7" t="n">
-        <v>10</v>
-      </c>
+      <c r="I7" t="n">
+        <v>150</v>
+      </c>
+      <c r="J7"/>
       <c r="K7"/>
       <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7" t="n">
-        <v>40</v>
-      </c>
+      <c r="M7" t="n">
+        <v>980</v>
+      </c>
+      <c r="N7"/>
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B8" t="n">
         <v>7093</v>
@@ -881,113 +854,107 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n">
-        <v>26021</v>
+        <v>68501</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
-      <c r="H8" t="n">
-        <v>42</v>
-      </c>
-      <c r="I8"/>
+      <c r="H8"/>
+      <c r="I8" t="n">
+        <v>56</v>
+      </c>
       <c r="J8"/>
       <c r="K8"/>
-      <c r="L8" t="n">
-        <v>94</v>
-      </c>
-      <c r="M8"/>
+      <c r="L8"/>
+      <c r="M8" t="n">
+        <v>110</v>
+      </c>
       <c r="N8"/>
       <c r="O8"/>
-      <c r="P8" t="n">
-        <v>130</v>
-      </c>
+      <c r="P8"/>
       <c r="Q8" t="n">
-        <v>266</v>
+        <v>110</v>
       </c>
       <c r="R8" t="n">
-        <v>2.11111111111111</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
         <v>7093</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
       </c>
       <c r="E9" t="n">
-        <v>2221</v>
+        <v>2155</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
-      <c r="H9" t="n">
-        <v>500</v>
-      </c>
-      <c r="I9"/>
+      <c r="H9"/>
+      <c r="I9" t="n">
+        <v>71</v>
+      </c>
       <c r="J9"/>
       <c r="K9"/>
-      <c r="L9" t="n">
-        <v>520</v>
-      </c>
-      <c r="M9"/>
+      <c r="L9"/>
+      <c r="M9" t="n">
+        <v>216</v>
+      </c>
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" t="n">
-        <v>400</v>
-      </c>
+      <c r="P9"/>
       <c r="Q9" t="n">
-        <v>1420</v>
+        <v>57</v>
       </c>
       <c r="R9" t="n">
-        <v>2.02567760342368</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
         <v>7093</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>3559</v>
+        <v>2158</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
-      <c r="H10" t="n">
-        <v>550</v>
-      </c>
-      <c r="I10"/>
+      <c r="H10"/>
+      <c r="I10" t="n">
+        <v>71</v>
+      </c>
       <c r="J10"/>
       <c r="K10"/>
-      <c r="L10" t="n">
-        <v>550</v>
-      </c>
-      <c r="M10"/>
+      <c r="L10"/>
+      <c r="M10" t="n">
+        <v>216</v>
+      </c>
       <c r="N10"/>
       <c r="O10"/>
-      <c r="P10" t="n">
-        <v>400</v>
-      </c>
+      <c r="P10"/>
       <c r="Q10" t="n">
-        <v>1500</v>
+        <v>57</v>
       </c>
       <c r="R10" t="n">
-        <v>2.19298245614035</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11">
@@ -1004,70 +971,66 @@
         <v>31</v>
       </c>
       <c r="E11" t="n">
-        <v>34171</v>
-      </c>
-      <c r="F11" t="n">
-        <v>40</v>
-      </c>
+        <v>2161</v>
+      </c>
+      <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11" t="n">
-        <v>90</v>
-      </c>
+      <c r="I11" t="n">
+        <v>44</v>
+      </c>
+      <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11" t="n">
-        <v>132</v>
-      </c>
+      <c r="M11" t="n">
+        <v>70</v>
+      </c>
+      <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
       <c r="Q11" t="n">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="R11" t="n">
-        <v>2.23931623931624</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" t="n">
         <v>7093</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
       </c>
       <c r="E12" t="n">
-        <v>55731</v>
-      </c>
-      <c r="F12" t="n">
-        <v>150</v>
-      </c>
-      <c r="G12"/>
+        <v>21471</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
       <c r="H12"/>
       <c r="I12"/>
-      <c r="J12" t="n">
-        <v>130</v>
-      </c>
-      <c r="K12"/>
+      <c r="J12"/>
+      <c r="K12" t="n">
+        <v>35</v>
+      </c>
       <c r="L12"/>
       <c r="M12"/>
-      <c r="N12" t="n">
-        <v>170</v>
-      </c>
-      <c r="O12"/>
+      <c r="N12"/>
+      <c r="O12" t="n">
+        <v>365</v>
+      </c>
       <c r="P12"/>
-      <c r="Q12" t="n">
-        <v>450</v>
-      </c>
+      <c r="Q12"/>
       <c r="R12" t="n">
-        <v>2.25</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13">
@@ -1078,39 +1041,39 @@
         <v>7093</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
       </c>
       <c r="E13" t="n">
-        <v>55741</v>
-      </c>
-      <c r="F13" t="n">
-        <v>168</v>
-      </c>
+        <v>26021</v>
+      </c>
+      <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13" t="n">
-        <v>95</v>
-      </c>
+      <c r="I13" t="n">
+        <v>30</v>
+      </c>
+      <c r="J13"/>
       <c r="K13"/>
       <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13" t="n">
-        <v>167</v>
-      </c>
+      <c r="M13" t="n">
+        <v>30</v>
+      </c>
+      <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13" t="n">
-        <v>430</v>
-      </c>
-      <c r="R13"/>
+        <v>784</v>
+      </c>
+      <c r="R13" t="n">
+        <v>844</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
         <v>7093</v>
@@ -1122,30 +1085,28 @@
         <v>34</v>
       </c>
       <c r="E14" t="n">
-        <v>55761</v>
-      </c>
-      <c r="F14" t="n">
-        <v>176</v>
-      </c>
-      <c r="G14"/>
+        <v>55731</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14" t="n">
+        <v>120</v>
+      </c>
       <c r="H14"/>
       <c r="I14"/>
-      <c r="J14" t="n">
-        <v>138</v>
-      </c>
-      <c r="K14"/>
+      <c r="J14"/>
+      <c r="K14" t="n">
+        <v>90</v>
+      </c>
       <c r="L14"/>
       <c r="M14"/>
-      <c r="N14" t="n">
+      <c r="N14"/>
+      <c r="O14" t="n">
         <v>210</v>
       </c>
-      <c r="O14"/>
       <c r="P14"/>
-      <c r="Q14" t="n">
-        <v>524</v>
-      </c>
+      <c r="Q14"/>
       <c r="R14" t="n">
-        <v>2.34977578475336</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15">
@@ -1162,30 +1123,28 @@
         <v>35</v>
       </c>
       <c r="E15" t="n">
-        <v>57021</v>
+        <v>4957</v>
       </c>
       <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15" t="n">
-        <v>60</v>
-      </c>
+      <c r="G15" t="n">
+        <v>100</v>
+      </c>
+      <c r="H15"/>
       <c r="I15"/>
       <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15" t="n">
+      <c r="K15" t="n">
         <v>50</v>
       </c>
+      <c r="L15"/>
       <c r="M15"/>
       <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15" t="n">
-        <v>173</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>283</v>
-      </c>
+      <c r="O15" t="n">
+        <v>280</v>
+      </c>
+      <c r="P15"/>
+      <c r="Q15"/>
       <c r="R15" t="n">
-        <v>2.46086956521739</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16">
@@ -1202,35 +1161,33 @@
         <v>36</v>
       </c>
       <c r="E16" t="n">
-        <v>57291</v>
+        <v>55761</v>
       </c>
       <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
+      <c r="G16" t="n">
+        <v>180</v>
+      </c>
+      <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16" t="n">
-        <v>100</v>
-      </c>
+      <c r="K16" t="n">
+        <v>60</v>
+      </c>
+      <c r="L16"/>
       <c r="M16"/>
       <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16" t="n">
-        <v>240</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>440</v>
-      </c>
+      <c r="O16" t="n">
+        <v>170</v>
+      </c>
+      <c r="P16"/>
+      <c r="Q16"/>
       <c r="R16" t="n">
-        <v>1.92982456140351</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B17" t="n">
         <v>7093</v>
@@ -1242,113 +1199,105 @@
         <v>37</v>
       </c>
       <c r="E17" t="n">
-        <v>57821</v>
-      </c>
-      <c r="F17" t="n">
-        <v>105</v>
-      </c>
-      <c r="G17"/>
+        <v>81341</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17" t="n">
+        <v>85</v>
+      </c>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="L17"/>
       <c r="M17"/>
-      <c r="N17" t="n">
-        <v>120</v>
-      </c>
-      <c r="O17"/>
+      <c r="N17"/>
+      <c r="O17" t="n">
+        <v>60</v>
+      </c>
       <c r="P17"/>
-      <c r="Q17" t="n">
-        <v>300</v>
-      </c>
+      <c r="Q17"/>
       <c r="R17" t="n">
-        <v>2.30769230769231</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n">
         <v>7093</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
       </c>
       <c r="E18" t="n">
-        <v>2042</v>
-      </c>
-      <c r="F18" t="n">
-        <v>180</v>
-      </c>
+        <v>81511</v>
+      </c>
+      <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
-      <c r="J18" t="n">
-        <v>562</v>
-      </c>
-      <c r="K18"/>
+      <c r="J18"/>
+      <c r="K18" t="n">
+        <v>421</v>
+      </c>
       <c r="L18"/>
       <c r="M18"/>
-      <c r="N18" t="n">
-        <v>718</v>
-      </c>
-      <c r="O18"/>
+      <c r="N18"/>
+      <c r="O18" t="n">
+        <v>566</v>
+      </c>
       <c r="P18"/>
-      <c r="Q18" t="n">
-        <v>1460</v>
-      </c>
-      <c r="R18"/>
+      <c r="Q18"/>
+      <c r="R18" t="n">
+        <v>987</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B19" t="n">
         <v>7093</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>39</v>
       </c>
       <c r="E19" t="n">
-        <v>85251</v>
-      </c>
-      <c r="F19" t="n">
-        <v>216</v>
-      </c>
+        <v>81521</v>
+      </c>
+      <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
-      <c r="J19" t="n">
-        <v>60</v>
-      </c>
-      <c r="K19"/>
+      <c r="J19"/>
+      <c r="K19" t="n">
+        <v>340</v>
+      </c>
       <c r="L19"/>
       <c r="M19"/>
-      <c r="N19" t="n">
-        <v>165</v>
-      </c>
-      <c r="O19"/>
+      <c r="N19"/>
+      <c r="O19" t="n">
+        <v>651</v>
+      </c>
       <c r="P19"/>
-      <c r="Q19" t="n">
-        <v>441</v>
-      </c>
+      <c r="Q19"/>
       <c r="R19" t="n">
-        <v>2.42307692307692</v>
+        <v>991</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
         <v>7093</v>
@@ -1360,35 +1309,33 @@
         <v>40</v>
       </c>
       <c r="E20" t="n">
-        <v>85261</v>
-      </c>
-      <c r="F20" t="n">
-        <v>126</v>
-      </c>
-      <c r="G20"/>
+        <v>85111</v>
+      </c>
+      <c r="F20"/>
+      <c r="G20" t="n">
+        <v>130</v>
+      </c>
       <c r="H20"/>
       <c r="I20"/>
-      <c r="J20" t="n">
-        <v>26</v>
-      </c>
-      <c r="K20"/>
+      <c r="J20"/>
+      <c r="K20" t="n">
+        <v>50</v>
+      </c>
       <c r="L20"/>
       <c r="M20"/>
-      <c r="N20" t="n">
-        <v>118</v>
-      </c>
-      <c r="O20"/>
+      <c r="N20"/>
+      <c r="O20" t="n">
+        <v>180</v>
+      </c>
       <c r="P20"/>
-      <c r="Q20" t="n">
-        <v>270</v>
-      </c>
+      <c r="Q20"/>
       <c r="R20" t="n">
-        <v>1.95652173913043</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B21" t="n">
         <v>7093</v>
@@ -1400,35 +1347,33 @@
         <v>41</v>
       </c>
       <c r="E21" t="n">
-        <v>85311</v>
-      </c>
-      <c r="F21" t="n">
-        <v>170</v>
-      </c>
-      <c r="G21"/>
+        <v>85251</v>
+      </c>
+      <c r="F21"/>
+      <c r="G21" t="n">
+        <v>220</v>
+      </c>
       <c r="H21"/>
       <c r="I21"/>
-      <c r="J21" t="n">
-        <v>85</v>
-      </c>
-      <c r="K21"/>
+      <c r="J21"/>
+      <c r="K21" t="n">
+        <v>50</v>
+      </c>
       <c r="L21"/>
       <c r="M21"/>
-      <c r="N21" t="n">
+      <c r="N21"/>
+      <c r="O21" t="n">
         <v>150</v>
       </c>
-      <c r="O21"/>
       <c r="P21"/>
-      <c r="Q21" t="n">
-        <v>405</v>
-      </c>
+      <c r="Q21"/>
       <c r="R21" t="n">
-        <v>2.20108695652174</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B22" t="n">
         <v>7093</v>
@@ -1440,35 +1385,33 @@
         <v>42</v>
       </c>
       <c r="E22" t="n">
-        <v>85331</v>
-      </c>
-      <c r="F22" t="n">
-        <v>160</v>
-      </c>
-      <c r="G22"/>
+        <v>85261</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22" t="n">
+        <v>180</v>
+      </c>
       <c r="H22"/>
       <c r="I22"/>
-      <c r="J22" t="n">
+      <c r="J22"/>
+      <c r="K22" t="n">
         <v>55</v>
       </c>
-      <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
-      <c r="N22" t="n">
-        <v>165</v>
-      </c>
-      <c r="O22"/>
+      <c r="N22"/>
+      <c r="O22" t="n">
+        <v>35</v>
+      </c>
       <c r="P22"/>
-      <c r="Q22" t="n">
-        <v>380</v>
-      </c>
+      <c r="Q22"/>
       <c r="R22" t="n">
-        <v>2.23529411764706</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B23" t="n">
         <v>7093</v>
@@ -1480,35 +1423,33 @@
         <v>43</v>
       </c>
       <c r="E23" t="n">
-        <v>85351</v>
-      </c>
-      <c r="F23" t="n">
-        <v>160</v>
-      </c>
-      <c r="G23"/>
+        <v>85311</v>
+      </c>
+      <c r="F23"/>
+      <c r="G23" t="n">
+        <v>70</v>
+      </c>
       <c r="H23"/>
       <c r="I23"/>
-      <c r="J23" t="n">
-        <v>55</v>
-      </c>
-      <c r="K23"/>
+      <c r="J23"/>
+      <c r="K23" t="n">
+        <v>25</v>
+      </c>
       <c r="L23"/>
       <c r="M23"/>
-      <c r="N23" t="n">
-        <v>160</v>
-      </c>
-      <c r="O23"/>
+      <c r="N23"/>
+      <c r="O23" t="n">
+        <v>255</v>
+      </c>
       <c r="P23"/>
-      <c r="Q23" t="n">
-        <v>375</v>
-      </c>
+      <c r="Q23"/>
       <c r="R23" t="n">
-        <v>2.08333333333333</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B24" t="n">
         <v>7093</v>
@@ -1520,67 +1461,67 @@
         <v>44</v>
       </c>
       <c r="E24" t="n">
-        <v>2732</v>
-      </c>
-      <c r="F24" t="n">
-        <v>136</v>
-      </c>
-      <c r="G24"/>
+        <v>85331</v>
+      </c>
+      <c r="F24"/>
+      <c r="G24" t="n">
+        <v>60</v>
+      </c>
       <c r="H24"/>
       <c r="I24"/>
-      <c r="J24" t="n">
-        <v>30</v>
-      </c>
-      <c r="K24"/>
+      <c r="J24"/>
+      <c r="K24" t="n">
+        <v>55</v>
+      </c>
       <c r="L24"/>
       <c r="M24"/>
-      <c r="N24" t="n">
-        <v>170</v>
-      </c>
-      <c r="O24"/>
+      <c r="N24"/>
+      <c r="O24" t="n">
+        <v>240</v>
+      </c>
       <c r="P24"/>
-      <c r="Q24" t="n">
-        <v>336</v>
-      </c>
+      <c r="Q24"/>
       <c r="R24" t="n">
-        <v>1.75</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B25" t="n">
         <v>7093</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
         <v>45</v>
       </c>
       <c r="E25" t="n">
-        <v>81521</v>
+        <v>85351</v>
       </c>
       <c r="F25"/>
-      <c r="G25"/>
+      <c r="G25" t="n">
+        <v>90</v>
+      </c>
       <c r="H25"/>
       <c r="I25"/>
-      <c r="J25" t="n">
-        <v>500</v>
-      </c>
-      <c r="K25"/>
+      <c r="J25"/>
+      <c r="K25" t="n">
+        <v>20</v>
+      </c>
       <c r="L25"/>
       <c r="M25"/>
-      <c r="N25" t="n">
-        <v>520</v>
-      </c>
-      <c r="O25"/>
+      <c r="N25"/>
+      <c r="O25" t="n">
+        <v>270</v>
+      </c>
       <c r="P25"/>
-      <c r="Q25" t="n">
-        <v>1020</v>
-      </c>
-      <c r="R25"/>
+      <c r="Q25"/>
+      <c r="R25" t="n">
+        <v>380</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -1590,35 +1531,35 @@
         <v>7093</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
         <v>46</v>
       </c>
       <c r="E26" t="n">
-        <v>3556</v>
+        <v>85361</v>
       </c>
       <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26" t="n">
-        <v>350</v>
-      </c>
+      <c r="G26" t="n">
+        <v>94</v>
+      </c>
+      <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26" t="n">
-        <v>570</v>
-      </c>
+      <c r="K26" t="n">
+        <v>20</v>
+      </c>
+      <c r="L26"/>
       <c r="M26"/>
       <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26" t="n">
-        <v>570</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1490</v>
-      </c>
-      <c r="R26"/>
+      <c r="O26" t="n">
+        <v>250</v>
+      </c>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26" t="n">
+        <v>364</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -1634,30 +1575,28 @@
         <v>47</v>
       </c>
       <c r="E27" t="n">
-        <v>2353</v>
+        <v>8537</v>
       </c>
       <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27" t="n">
-        <v>40</v>
-      </c>
+      <c r="G27" t="n">
+        <v>270</v>
+      </c>
+      <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27" t="n">
-        <v>55</v>
-      </c>
+      <c r="K27" t="n">
+        <v>100</v>
+      </c>
+      <c r="L27"/>
       <c r="M27"/>
       <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27" t="n">
-        <v>161</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>256</v>
-      </c>
+      <c r="O27" t="n">
+        <v>80</v>
+      </c>
+      <c r="P27"/>
+      <c r="Q27"/>
       <c r="R27" t="n">
-        <v>2.11570247933884</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28">
@@ -1674,69 +1613,67 @@
         <v>48</v>
       </c>
       <c r="E28" t="n">
-        <v>2354</v>
+        <v>76391</v>
       </c>
       <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28" t="n">
-        <v>40</v>
-      </c>
+      <c r="G28" t="n">
+        <v>60</v>
+      </c>
+      <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28" t="n">
-        <v>55</v>
-      </c>
+      <c r="K28" t="n">
+        <v>30</v>
+      </c>
+      <c r="L28"/>
       <c r="M28"/>
       <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28" t="n">
-        <v>161</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>256</v>
-      </c>
+      <c r="O28" t="n">
+        <v>170</v>
+      </c>
+      <c r="P28"/>
+      <c r="Q28"/>
       <c r="R28" t="n">
-        <v>2.11570247933884</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B29" t="n">
         <v>7093</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
         <v>49</v>
       </c>
       <c r="E29" t="n">
-        <v>2519</v>
+        <v>88571</v>
       </c>
       <c r="F29"/>
       <c r="G29"/>
-      <c r="H29" t="n">
-        <v>300</v>
-      </c>
-      <c r="I29"/>
+      <c r="H29"/>
+      <c r="I29" t="n">
+        <v>45</v>
+      </c>
       <c r="J29"/>
       <c r="K29"/>
-      <c r="L29" t="n">
-        <v>600</v>
-      </c>
-      <c r="M29"/>
+      <c r="L29"/>
+      <c r="M29" t="n">
+        <v>35</v>
+      </c>
       <c r="N29"/>
       <c r="O29"/>
-      <c r="P29" t="n">
-        <v>350</v>
-      </c>
+      <c r="P29"/>
       <c r="Q29" t="n">
-        <v>1250</v>
-      </c>
-      <c r="R29"/>
+        <v>110</v>
+      </c>
+      <c r="R29" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -1746,35 +1683,35 @@
         <v>7093</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
         <v>50</v>
       </c>
       <c r="E30" t="n">
-        <v>26011</v>
-      </c>
-      <c r="F30" t="n">
-        <v>310</v>
-      </c>
+        <v>2221</v>
+      </c>
+      <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30" t="n">
-        <v>70</v>
-      </c>
+      <c r="I30" t="n">
+        <v>180</v>
+      </c>
+      <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30" t="n">
-        <v>650</v>
-      </c>
+      <c r="M30" t="n">
+        <v>570</v>
+      </c>
+      <c r="N30"/>
       <c r="O30"/>
       <c r="P30"/>
       <c r="Q30" t="n">
-        <v>1030</v>
-      </c>
-      <c r="R30"/>
+        <v>600</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1350</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -1790,69 +1727,67 @@
         <v>51</v>
       </c>
       <c r="E31" t="n">
-        <v>6276</v>
-      </c>
-      <c r="F31" t="n">
-        <v>485</v>
-      </c>
+        <v>5058</v>
+      </c>
+      <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31" t="n">
-        <v>630</v>
-      </c>
+      <c r="I31" t="n">
+        <v>120</v>
+      </c>
+      <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31" t="n">
-        <v>125</v>
-      </c>
+      <c r="M31" t="n">
+        <v>40</v>
+      </c>
+      <c r="N31"/>
       <c r="O31"/>
       <c r="P31"/>
       <c r="Q31" t="n">
-        <v>1240</v>
+        <v>140</v>
       </c>
       <c r="R31" t="n">
-        <v>2.38003838771593</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B32" t="n">
         <v>7093</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D32" t="s">
         <v>52</v>
       </c>
       <c r="E32" t="n">
-        <v>6346</v>
+        <v>3556</v>
       </c>
       <c r="F32"/>
       <c r="G32"/>
-      <c r="H32" t="n">
-        <v>500</v>
-      </c>
-      <c r="I32"/>
+      <c r="H32"/>
+      <c r="I32" t="n">
+        <v>400</v>
+      </c>
       <c r="J32"/>
       <c r="K32"/>
-      <c r="L32" t="n">
-        <v>650</v>
-      </c>
-      <c r="M32"/>
+      <c r="L32"/>
+      <c r="M32" t="n">
+        <v>600</v>
+      </c>
       <c r="N32"/>
       <c r="O32"/>
-      <c r="P32" t="n">
-        <v>270</v>
-      </c>
+      <c r="P32"/>
       <c r="Q32" t="n">
-        <v>1420</v>
-      </c>
-      <c r="R32"/>
+        <v>400</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1400</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -1862,39 +1797,39 @@
         <v>7093</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D33" t="s">
         <v>53</v>
       </c>
       <c r="E33" t="n">
-        <v>2453</v>
-      </c>
-      <c r="F33" t="n">
-        <v>350</v>
-      </c>
+        <v>3559</v>
+      </c>
+      <c r="F33"/>
       <c r="G33"/>
       <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33" t="n">
-        <v>450</v>
-      </c>
+      <c r="I33" t="n">
+        <v>560</v>
+      </c>
+      <c r="J33"/>
       <c r="K33"/>
       <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33" t="n">
-        <v>650</v>
-      </c>
+      <c r="M33" t="n">
+        <v>400</v>
+      </c>
+      <c r="N33"/>
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33" t="n">
-        <v>1450</v>
-      </c>
-      <c r="R33"/>
+        <v>440</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1400</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B34" t="n">
         <v>7093</v>
@@ -1906,150 +1841,142 @@
         <v>54</v>
       </c>
       <c r="E34" t="n">
-        <v>6234</v>
+        <v>62451</v>
       </c>
       <c r="F34"/>
       <c r="G34"/>
-      <c r="H34" t="n">
-        <v>101</v>
-      </c>
-      <c r="I34"/>
+      <c r="H34"/>
+      <c r="I34" t="n">
+        <v>75</v>
+      </c>
       <c r="J34"/>
       <c r="K34"/>
-      <c r="L34" t="n">
-        <v>95</v>
-      </c>
-      <c r="M34"/>
+      <c r="L34"/>
+      <c r="M34" t="n">
+        <v>120</v>
+      </c>
       <c r="N34"/>
       <c r="O34"/>
-      <c r="P34" t="n">
-        <v>176</v>
-      </c>
+      <c r="P34"/>
       <c r="Q34" t="n">
-        <v>372</v>
+        <v>300</v>
       </c>
       <c r="R34" t="n">
-        <v>2.11363636363636</v>
+        <v>495</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B35" t="n">
         <v>7093</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s">
         <v>55</v>
       </c>
       <c r="E35" t="n">
-        <v>62431</v>
+        <v>6344</v>
       </c>
       <c r="F35"/>
       <c r="G35"/>
-      <c r="H35" t="n">
-        <v>45</v>
-      </c>
-      <c r="I35"/>
+      <c r="H35"/>
+      <c r="I35" t="n">
+        <v>500</v>
+      </c>
       <c r="J35"/>
       <c r="K35"/>
-      <c r="L35" t="n">
-        <v>65</v>
-      </c>
-      <c r="M35"/>
+      <c r="L35"/>
+      <c r="M35" t="n">
+        <v>400</v>
+      </c>
       <c r="N35"/>
       <c r="O35"/>
-      <c r="P35" t="n">
-        <v>135</v>
-      </c>
+      <c r="P35"/>
       <c r="Q35" t="n">
-        <v>245</v>
+        <v>500</v>
       </c>
       <c r="R35" t="n">
-        <v>2.33333333333333</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B36" t="n">
         <v>7093</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
         <v>56</v>
       </c>
       <c r="E36" t="n">
-        <v>68541</v>
+        <v>6346</v>
       </c>
       <c r="F36"/>
       <c r="G36"/>
-      <c r="H36" t="n">
-        <v>80</v>
-      </c>
-      <c r="I36"/>
+      <c r="H36"/>
+      <c r="I36" t="n">
+        <v>500</v>
+      </c>
       <c r="J36"/>
       <c r="K36"/>
-      <c r="L36" t="n">
-        <v>105</v>
-      </c>
-      <c r="M36"/>
+      <c r="L36"/>
+      <c r="M36" t="n">
+        <v>500</v>
+      </c>
       <c r="N36"/>
       <c r="O36"/>
-      <c r="P36" t="n">
-        <v>135</v>
-      </c>
+      <c r="P36"/>
       <c r="Q36" t="n">
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="R36" t="n">
-        <v>2.13333333333333</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B37" t="n">
         <v>7093</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D37" t="s">
         <v>57</v>
       </c>
       <c r="E37" t="n">
-        <v>68551</v>
+        <v>2519</v>
       </c>
       <c r="F37"/>
       <c r="G37"/>
-      <c r="H37" t="n">
-        <v>45</v>
-      </c>
-      <c r="I37"/>
+      <c r="H37"/>
+      <c r="I37" t="n">
+        <v>250</v>
+      </c>
       <c r="J37"/>
       <c r="K37"/>
-      <c r="L37" t="n">
-        <v>55</v>
-      </c>
-      <c r="M37"/>
+      <c r="L37"/>
+      <c r="M37" t="n">
+        <v>510</v>
+      </c>
       <c r="N37"/>
       <c r="O37"/>
-      <c r="P37" t="n">
-        <v>150</v>
-      </c>
+      <c r="P37"/>
       <c r="Q37" t="n">
-        <v>250</v>
+        <v>521</v>
       </c>
       <c r="R37" t="n">
-        <v>2.38095238095238</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="38">
@@ -2060,36 +1987,34 @@
         <v>7093</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D38" t="s">
         <v>58</v>
       </c>
       <c r="E38" t="n">
-        <v>52771</v>
-      </c>
-      <c r="F38" t="n">
-        <v>80</v>
-      </c>
+        <v>26011</v>
+      </c>
+      <c r="F38"/>
       <c r="G38"/>
       <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38" t="n">
-        <v>74</v>
-      </c>
+      <c r="I38" t="n">
+        <v>80</v>
+      </c>
+      <c r="J38"/>
       <c r="K38"/>
       <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38" t="n">
-        <v>123</v>
-      </c>
+      <c r="M38" t="n">
+        <v>795</v>
+      </c>
+      <c r="N38"/>
       <c r="O38"/>
       <c r="P38"/>
       <c r="Q38" t="n">
-        <v>277</v>
+        <v>175</v>
       </c>
       <c r="R38" t="n">
-        <v>2.42982456140351</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="39">
@@ -2106,70 +2031,66 @@
         <v>59</v>
       </c>
       <c r="E39" t="n">
-        <v>2558</v>
-      </c>
-      <c r="F39" t="n">
-        <v>360</v>
-      </c>
+        <v>87681</v>
+      </c>
+      <c r="F39"/>
       <c r="G39"/>
       <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39" t="n">
-        <v>80</v>
-      </c>
+      <c r="I39" t="n">
+        <v>70</v>
+      </c>
+      <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39" t="n">
-        <v>368</v>
-      </c>
+      <c r="M39" t="n">
+        <v>145</v>
+      </c>
+      <c r="N39"/>
       <c r="O39"/>
       <c r="P39"/>
       <c r="Q39" t="n">
-        <v>808</v>
+        <v>165</v>
       </c>
       <c r="R39" t="n">
-        <v>2.18378378378378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B40" t="n">
         <v>7093</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
         <v>60</v>
       </c>
       <c r="E40" t="n">
-        <v>6344</v>
+        <v>88581</v>
       </c>
       <c r="F40"/>
       <c r="G40"/>
-      <c r="H40" t="n">
-        <v>500</v>
-      </c>
-      <c r="I40"/>
+      <c r="H40"/>
+      <c r="I40" t="n">
+        <v>100</v>
+      </c>
       <c r="J40"/>
       <c r="K40"/>
-      <c r="L40" t="n">
-        <v>740</v>
-      </c>
-      <c r="M40"/>
+      <c r="L40"/>
+      <c r="M40" t="n">
+        <v>30</v>
+      </c>
       <c r="N40"/>
       <c r="O40"/>
-      <c r="P40" t="n">
-        <v>210</v>
-      </c>
+      <c r="P40"/>
       <c r="Q40" t="n">
-        <v>1450</v>
+        <v>30</v>
       </c>
       <c r="R40" t="n">
-        <v>181.25</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41">
@@ -2180,276 +2101,70 @@
         <v>7093</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s">
         <v>61</v>
       </c>
       <c r="E41" t="n">
-        <v>67041</v>
-      </c>
-      <c r="F41" t="n">
-        <v>190</v>
-      </c>
+        <v>2632</v>
+      </c>
+      <c r="F41"/>
       <c r="G41"/>
       <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41" t="n">
-        <v>582</v>
-      </c>
+      <c r="I41" t="n">
+        <v>250</v>
+      </c>
+      <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41" t="n">
-        <v>738</v>
-      </c>
+      <c r="M41" t="n">
+        <v>500</v>
+      </c>
+      <c r="N41"/>
       <c r="O41"/>
       <c r="P41"/>
       <c r="Q41" t="n">
-        <v>1510</v>
+        <v>566</v>
       </c>
       <c r="R41" t="n">
-        <v>37.75</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B42" t="n">
         <v>7093</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D42" t="s">
         <v>62</v>
       </c>
       <c r="E42" t="n">
-        <v>2632</v>
+        <v>87221</v>
       </c>
       <c r="F42"/>
       <c r="G42"/>
-      <c r="H42" t="n">
-        <v>220</v>
-      </c>
+      <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
-      <c r="L42" t="n">
-        <v>500</v>
-      </c>
-      <c r="M42"/>
+      <c r="L42"/>
+      <c r="M42" t="n">
+        <v>600</v>
+      </c>
       <c r="N42"/>
       <c r="O42"/>
-      <c r="P42" t="n">
-        <v>500</v>
-      </c>
+      <c r="P42"/>
       <c r="Q42" t="n">
-        <v>1220</v>
+        <v>390</v>
       </c>
       <c r="R42" t="n">
-        <v>39.3548387096774</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n">
-        <v>7093</v>
-      </c>
-      <c r="C43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" t="n">
-        <v>5050</v>
-      </c>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43" t="n">
-        <v>56</v>
-      </c>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43" t="n">
-        <v>6</v>
-      </c>
-      <c r="M43"/>
-      <c r="N43"/>
-      <c r="O43"/>
-      <c r="P43" t="n">
-        <v>68</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>130</v>
-      </c>
-      <c r="R43" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" t="n">
-        <v>7093</v>
-      </c>
-      <c r="C44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" t="s">
-        <v>64</v>
-      </c>
-      <c r="E44" t="n">
-        <v>5051</v>
-      </c>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44" t="n">
-        <v>110</v>
-      </c>
-      <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44" t="n">
-        <v>20</v>
-      </c>
-      <c r="M44"/>
-      <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44" t="n">
-        <v>120</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>250</v>
-      </c>
-      <c r="R44" t="n">
-        <v>2.01612903225806</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>18</v>
-      </c>
-      <c r="B45" t="n">
-        <v>7093</v>
-      </c>
-      <c r="C45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" t="s">
-        <v>65</v>
-      </c>
-      <c r="E45" t="n">
-        <v>5052</v>
-      </c>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45" t="n">
-        <v>100</v>
-      </c>
-      <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45" t="n">
-        <v>30</v>
-      </c>
-      <c r="M45"/>
-      <c r="N45"/>
-      <c r="O45"/>
-      <c r="P45" t="n">
-        <v>120</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>250</v>
-      </c>
-      <c r="R45" t="n">
-        <v>2.08333333333333</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" t="n">
-        <v>7093</v>
-      </c>
-      <c r="C46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" t="n">
-        <v>5053</v>
-      </c>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46" t="n">
-        <v>100</v>
-      </c>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46" t="n">
-        <v>30</v>
-      </c>
-      <c r="M46"/>
-      <c r="N46"/>
-      <c r="O46"/>
-      <c r="P46" t="n">
-        <v>120</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>250</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.96850393700787</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" t="n">
-        <v>7093</v>
-      </c>
-      <c r="C47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" t="n">
-        <v>5059</v>
-      </c>
-      <c r="F47" t="n">
-        <v>85</v>
-      </c>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
-      <c r="J47" t="n">
-        <v>25</v>
-      </c>
-      <c r="K47"/>
-      <c r="L47"/>
-      <c r="M47"/>
-      <c r="N47" t="n">
-        <v>100</v>
-      </c>
-      <c r="O47"/>
-      <c r="P47"/>
-      <c r="Q47" t="n">
-        <v>210</v>
-      </c>
-      <c r="R47" t="n">
-        <v>2</v>
+        <v>970</v>
       </c>
     </row>
   </sheetData>
